--- a/工程管理/K-各印刷予定確認/Form項目精査資料.xlsx
+++ b/工程管理/K-各印刷予定確認/Form項目精査資料.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\工程管理\K-各印刷予定確認\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\工程管理\K-各印刷予定確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D16B7A0-3D6D-4068-A3A9-B37634607BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE7B30-E3DB-46AA-BDB1-D56445AA348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="3345" windowWidth="28290" windowHeight="11985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="一覧項目調整用資料" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="352">
   <si>
     <t>###</t>
   </si>
@@ -1107,6 +1108,17 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -21962,7 +21974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AF573A-0693-4CF5-988D-358DD96426C7}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22176,4 +22188,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24671FAB-8AD4-4773-B5FA-70035EEF8901}">
+  <dimension ref="B2:AJ4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:36">
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B4+B3</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:AJ3" si="0">C4+C3</f>
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>679</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>753</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>788</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>823</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>883</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>979</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>1049</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>1094</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>1129</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>1171</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>1196</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>133</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>39</v>
+      </c>
+      <c r="R4">
+        <v>35</v>
+      </c>
+      <c r="S4">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>35</v>
+      </c>
+      <c r="U4">
+        <v>25</v>
+      </c>
+      <c r="V4">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>64</v>
+      </c>
+      <c r="X4">
+        <v>35</v>
+      </c>
+      <c r="Y4">
+        <v>35</v>
+      </c>
+      <c r="Z4">
+        <v>45</v>
+      </c>
+      <c r="AA4">
+        <v>35</v>
+      </c>
+      <c r="AB4">
+        <v>42</v>
+      </c>
+      <c r="AC4">
+        <v>25</v>
+      </c>
+      <c r="AD4">
+        <v>75</v>
+      </c>
+      <c r="AE4">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>